--- a/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - IC Canteen - EDU.xlsx
+++ b/Projects/CCRU/Data/KPIs_2020/INPUT/PoS 2020 - IC Canteen - EDU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My folder\RED\POS 2020\POS 2020 тех файлы\IC POS 2020 MAIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABA8650-9EA9-44C0-979D-EEA515A80BD0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE3A96-8A42-4BD6-83EA-A29D57250779}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -17,14 +17,14 @@
     <sheet name="Canteen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Canteen!$A$1:$AP$49</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Canteen!$A$1:$AP$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="0">Canteen!$A$1:$AP$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Canteen!$A$1:$AP$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Canteen!$A$1:$AP$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AP$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AP$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AP$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Canteen!$A$1:$AQ$49</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Canteen!$A$1:$AQ$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Canteen!$A$1:$AQ$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="0">Canteen!$A$1:$AQ$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="0">Canteen!$A$1:$AQ$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AQ$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AQ$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="0">Canteen!$A$1:$AQ$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="229">
   <si>
     <t>Sorting</t>
   </si>
@@ -518,12 +518,6 @@
     <t>Coca-Cola Zero - 0.33L</t>
   </si>
   <si>
-    <t>Fanta Pear - 0.5L</t>
-  </si>
-  <si>
-    <t>Sprite/Fanta Pear/Fanta Manguava - 0.5L</t>
-  </si>
-  <si>
     <t>BonAqua Carb - 0.5L</t>
   </si>
   <si>
@@ -560,18 +554,12 @@
     <t>Кока-Кола Зеро - 0.33л</t>
   </si>
   <si>
-    <t>Спрайт/Фанта Груша/Фанта Мангуава - 0.5л</t>
-  </si>
-  <si>
     <t>Фанта Шоката - 0.5л</t>
   </si>
   <si>
     <t>Кока-Кола Оранж/Ванила - 0.33л</t>
   </si>
   <si>
-    <t>Фанта Груша - 0.5л</t>
-  </si>
-  <si>
     <t>Кока-Кола Оранж - 0.5л</t>
   </si>
   <si>
@@ -605,13 +593,7 @@
     <t>5449000131836</t>
   </si>
   <si>
-    <t>54491069, 5449000172228, 5449000250759</t>
-  </si>
-  <si>
     <t>5449000213631</t>
-  </si>
-  <si>
-    <t>5449000172228</t>
   </si>
   <si>
     <t>90494406</t>
@@ -758,6 +740,27 @@
   </si>
   <si>
     <t>Sub category</t>
+  </si>
+  <si>
+    <t>Sub brand</t>
+  </si>
+  <si>
+    <t>Fanta Manguava/Pear/Sprite Mojito - 0.5L</t>
+  </si>
+  <si>
+    <t>Фанта Мангуава/Груша/Спрайт Мохито - 0.5л</t>
+  </si>
+  <si>
+    <t>5060466510869, 5449000172228</t>
+  </si>
+  <si>
+    <t>Sprite - 0.5L</t>
+  </si>
+  <si>
+    <t>Спрайт - 0.5л</t>
+  </si>
+  <si>
+    <t>54491069</t>
   </si>
 </sst>
 </file>
@@ -1280,11 +1283,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMO49"/>
+  <dimension ref="A1:AMP49"/>
   <sheetViews>
-    <sheetView windowProtection="1" tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1:S1048576"/>
+    <sheetView windowProtection="1" tabSelected="1" topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1300,19 +1303,21 @@
     <col min="9" max="9" width="25" style="5" customWidth="1"/>
     <col min="10" max="10" width="25.5546875" style="5" customWidth="1"/>
     <col min="11" max="15" width="8.88671875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="11" customWidth="1"/>
-    <col min="17" max="33" width="8.88671875" style="5" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" style="14" customWidth="1"/>
-    <col min="35" max="38" width="8.88671875" style="5" customWidth="1"/>
-    <col min="39" max="39" width="10.33203125" style="5"/>
-    <col min="40" max="40" width="10.6640625" style="5"/>
-    <col min="41" max="41" width="18.88671875" style="11"/>
-    <col min="42" max="42" width="11.44140625" style="5"/>
-    <col min="43" max="1029" width="9.109375" style="5" customWidth="1"/>
-    <col min="1030" max="16384" width="8.88671875" style="6"/>
+    <col min="16" max="16" width="42" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.88671875" style="5" customWidth="1"/>
+    <col min="20" max="20" width="16.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="34" width="8.88671875" style="5" customWidth="1"/>
+    <col min="35" max="35" width="8.88671875" style="14" customWidth="1"/>
+    <col min="36" max="39" width="8.88671875" style="5" customWidth="1"/>
+    <col min="40" max="40" width="10.33203125" style="5"/>
+    <col min="41" max="41" width="10.6640625" style="5"/>
+    <col min="42" max="42" width="18.88671875" style="11"/>
+    <col min="43" max="43" width="11.44140625" style="5"/>
+    <col min="44" max="1030" width="9.109375" style="5" customWidth="1"/>
+    <col min="1031" max="16384" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1365,87 +1370,90 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>38</v>
@@ -1488,27 +1496,28 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-      <c r="AI2" s="3"/>
+      <c r="AH2" s="3"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
-      <c r="AM2" s="3">
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3">
         <v>1</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AO2" s="3">
         <v>300</v>
       </c>
-      <c r="AO2" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="AP2" s="3"/>
+      <c r="AP2" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ2" s="3"/>
     </row>
-    <row r="3" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>38</v>
@@ -1556,32 +1565,33 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="3" t="s">
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
-      <c r="AM3" s="3">
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3">
         <v>2</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AO3" s="3">
         <v>1</v>
       </c>
-      <c r="AO3" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ3" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>38</v>
@@ -1613,59 +1623,60 @@
         <v>46</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="W4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="s">
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
-      <c r="AC4" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH4" s="14">
+      <c r="AI4" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
-      <c r="AM4" s="3">
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3">
         <v>3</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AO4" s="3">
         <v>2</v>
       </c>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="3">
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>38</v>
@@ -1680,7 +1691,7 @@
         <v>157</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>48</v>
@@ -1697,59 +1708,60 @@
         <v>157</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="3"/>
+      <c r="V5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="W5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
-      <c r="Z5" s="3" t="s">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
-      <c r="AC5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH5" s="14">
+      <c r="AI5" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-      <c r="AM5" s="3">
-        <v>3</v>
-      </c>
+      <c r="AM5" s="3"/>
       <c r="AN5" s="3">
         <v>3</v>
       </c>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="3">
+      <c r="AO5" s="3">
+        <v>3</v>
+      </c>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>38</v>
@@ -1787,53 +1799,54 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="3" t="s">
+      <c r="U6" s="3"/>
+      <c r="V6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="3" t="s">
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="3"/>
       <c r="AB6" s="3"/>
-      <c r="AC6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
-      <c r="AG6" s="3" t="s">
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH6" s="14">
+      <c r="AI6" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-      <c r="AM6" s="3">
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3">
         <v>3</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AO6" s="3">
         <v>4</v>
       </c>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="3">
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>38</v>
@@ -1865,59 +1878,60 @@
         <v>62</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="3" t="s">
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="3" t="s">
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
-      <c r="AC7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH7" s="14">
+      <c r="AI7" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-      <c r="AM7" s="3">
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3">
         <v>3</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AO7" s="3">
         <v>5</v>
       </c>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="3">
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>38</v>
@@ -1929,10 +1943,10 @@
         <v>42</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>48</v>
@@ -1946,62 +1960,63 @@
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="3" t="s">
+      <c r="W8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
-      <c r="AC8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
-      <c r="AG8" s="3" t="s">
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH8" s="14">
+      <c r="AI8" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="3">
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3">
         <v>3</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AO8" s="3">
         <v>6</v>
       </c>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="3">
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>38</v>
@@ -2039,53 +2054,54 @@
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="3" t="s">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3" t="s">
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
-      <c r="AC9" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
-      <c r="AG9" s="3" t="s">
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH9" s="14">
+      <c r="AI9" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
-      <c r="AM9" s="3">
+      <c r="AM9" s="3"/>
+      <c r="AN9" s="3">
         <v>3</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AO9" s="3">
         <v>7</v>
       </c>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="3">
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>38</v>
@@ -2123,53 +2139,54 @@
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="3" t="s">
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3" t="s">
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
-      <c r="AG10" s="3" t="s">
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH10" s="14">
+      <c r="AI10" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
-      <c r="AM10" s="3">
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3">
         <v>3</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AO10" s="3">
         <v>8</v>
       </c>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="3">
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>38</v>
@@ -2207,53 +2224,54 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="3" t="s">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V11" s="3" t="s">
+      <c r="W11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-      <c r="Z11" s="3" t="s">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-      <c r="AC11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-      <c r="AG11" s="3" t="s">
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH11" s="14">
+      <c r="AI11" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
-      <c r="AM11" s="3">
+      <c r="AM11" s="3"/>
+      <c r="AN11" s="3">
         <v>3</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AO11" s="3">
         <v>9</v>
       </c>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="3">
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>38</v>
@@ -2265,10 +2283,10 @@
         <v>42</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>48</v>
@@ -2282,62 +2300,63 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="3"/>
+      <c r="V12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
-      <c r="Z12" s="3" t="s">
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
-      <c r="AC12" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
-      <c r="AG12" s="3" t="s">
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH12" s="14">
+      <c r="AI12" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
-      <c r="AM12" s="3">
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3">
         <v>3</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AO12" s="3">
         <v>10</v>
       </c>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="3">
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>38</v>
@@ -2375,53 +2394,54 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3" t="s">
+      <c r="U13" s="3"/>
+      <c r="V13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
-      <c r="Z13" s="3" t="s">
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
-      <c r="AC13" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
-      <c r="AG13" s="3" t="s">
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH13" s="14">
+      <c r="AI13" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
       <c r="AK13" s="3"/>
       <c r="AL13" s="3"/>
-      <c r="AM13" s="3">
+      <c r="AM13" s="3"/>
+      <c r="AN13" s="3">
         <v>3</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AO13" s="3">
         <v>11</v>
       </c>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="3">
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>38</v>
@@ -2433,10 +2453,10 @@
         <v>42</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>48</v>
@@ -2450,7 +2470,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P14" s="9">
         <v>0</v>
@@ -2459,53 +2479,54 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
+      <c r="U14" s="3"/>
+      <c r="V14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
-      <c r="Z14" s="3" t="s">
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
-      <c r="AC14" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
-      <c r="AG14" s="3" t="s">
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH14" s="14">
+      <c r="AI14" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
       <c r="AK14" s="3"/>
       <c r="AL14" s="3"/>
-      <c r="AM14" s="3">
+      <c r="AM14" s="3"/>
+      <c r="AN14" s="3">
         <v>3</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AO14" s="3">
         <v>12</v>
       </c>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="3">
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>38</v>
@@ -2517,10 +2538,10 @@
         <v>42</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>48</v>
@@ -2534,62 +2555,63 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3" t="s">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V15" s="3" t="s">
+      <c r="W15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-      <c r="Z15" s="3" t="s">
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA15" s="3"/>
       <c r="AB15" s="3"/>
-      <c r="AC15" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
-      <c r="AG15" s="3" t="s">
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH15" s="14">
+      <c r="AI15" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
-      <c r="AM15" s="3">
+      <c r="AM15" s="3"/>
+      <c r="AN15" s="3">
         <v>3</v>
       </c>
-      <c r="AN15" s="3">
+      <c r="AO15" s="3">
         <v>13</v>
       </c>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="3">
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
@@ -2601,10 +2623,10 @@
         <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>48</v>
@@ -2618,7 +2640,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P16" s="9">
         <v>0</v>
@@ -2627,53 +2649,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3" t="s">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-      <c r="Z16" s="3" t="s">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-      <c r="AC16" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-      <c r="AG16" s="3" t="s">
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH16" s="14">
+      <c r="AI16" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
-      <c r="AM16" s="3">
+      <c r="AM16" s="3"/>
+      <c r="AN16" s="3">
         <v>3</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AO16" s="3">
         <v>14</v>
       </c>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="3">
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>38</v>
@@ -2721,32 +2744,33 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
-      <c r="AG17" s="3" t="s">
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
       <c r="AL17" s="3"/>
-      <c r="AM17" s="3">
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3">
         <v>2</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AO17" s="3">
         <v>15</v>
       </c>
-      <c r="AO17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AP17" s="3">
+      <c r="AP17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AQ17" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>38</v>
@@ -2784,53 +2808,54 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3" t="s">
+      <c r="U18" s="3"/>
+      <c r="V18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V18" s="3" t="s">
+      <c r="W18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
-      <c r="Z18" s="3" t="s">
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
-      <c r="AC18" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
-      <c r="AG18" s="3" t="s">
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH18" s="14">
+      <c r="AI18" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
-      <c r="AM18" s="3">
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3">
         <v>3</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AO18" s="3">
         <v>16</v>
       </c>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="3">
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>38</v>
@@ -2842,7 +2867,7 @@
         <v>69</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>75</v>
@@ -2859,62 +2884,63 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P19" s="9" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="3" t="s">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V19" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-      <c r="Z19" s="3" t="s">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-      <c r="AC19" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-      <c r="AG19" s="3" t="s">
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH19" s="14">
+      <c r="AI19" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
-      <c r="AM19" s="3">
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3">
         <v>3</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AO19" s="3">
         <v>17</v>
       </c>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="3">
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>38</v>
@@ -2926,10 +2952,10 @@
         <v>69</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>48</v>
@@ -2943,62 +2969,63 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="3"/>
+      <c r="V20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
-      <c r="Z20" s="3" t="s">
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
-      <c r="AC20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
-      <c r="AG20" s="3" t="s">
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH20" s="14">
+      <c r="AI20" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
       <c r="AL20" s="3"/>
-      <c r="AM20" s="3">
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3">
         <v>3</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AO20" s="3">
         <v>18</v>
       </c>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="3">
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>38</v>
@@ -3046,32 +3073,33 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
-      <c r="AG21" s="3" t="s">
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
       <c r="AL21" s="3"/>
-      <c r="AM21" s="3">
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3">
         <v>2</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AO21" s="3">
         <v>19</v>
       </c>
-      <c r="AO21" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="AP21" s="3">
+      <c r="AP21" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>38</v>
@@ -3083,10 +3111,10 @@
         <v>69</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>48</v>
@@ -3100,62 +3128,63 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3"/>
+      <c r="V22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
-      <c r="Z22" s="3" t="s">
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
-      <c r="AC22" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
-      <c r="AG22" s="3" t="s">
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH22" s="14">
+      <c r="AI22" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
       <c r="AL22" s="3"/>
-      <c r="AM22" s="3">
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3">
         <v>3</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AO22" s="3">
         <v>20</v>
       </c>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="3">
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>38</v>
@@ -3193,53 +3222,54 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="3" t="s">
+      <c r="U23" s="3"/>
+      <c r="V23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V23" s="3" t="s">
+      <c r="W23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
-      <c r="Z23" s="3" t="s">
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
-      <c r="AC23" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
-      <c r="AG23" s="3" t="s">
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH23" s="14">
+      <c r="AI23" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
       <c r="AK23" s="3"/>
       <c r="AL23" s="3"/>
-      <c r="AM23" s="3">
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3">
         <v>3</v>
       </c>
-      <c r="AN23" s="3">
+      <c r="AO23" s="3">
         <v>21</v>
       </c>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="3">
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>38</v>
@@ -3271,59 +3301,60 @@
         <v>78</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="3"/>
+      <c r="V24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="W24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W24" s="3"/>
       <c r="X24" s="3"/>
       <c r="Y24" s="3"/>
-      <c r="Z24" s="3" t="s">
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA24" s="3"/>
       <c r="AB24" s="3"/>
-      <c r="AC24" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
-      <c r="AG24" s="3" t="s">
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH24" s="14">
+      <c r="AI24" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI24" s="3"/>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="3"/>
       <c r="AL24" s="3"/>
-      <c r="AM24" s="3">
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3">
         <v>3</v>
       </c>
-      <c r="AN24" s="3">
+      <c r="AO24" s="3">
         <v>22</v>
       </c>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="3">
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>38</v>
@@ -3335,10 +3366,10 @@
         <v>69</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>48</v>
@@ -3352,7 +3383,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P25" s="9">
         <v>0</v>
@@ -3361,53 +3392,54 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="3" t="s">
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-      <c r="Z25" s="3" t="s">
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA25" s="3"/>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
-      <c r="AG25" s="3" t="s">
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH25" s="14">
+      <c r="AI25" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI25" s="3"/>
       <c r="AJ25" s="3"/>
       <c r="AK25" s="3"/>
       <c r="AL25" s="3"/>
-      <c r="AM25" s="3">
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3">
         <v>3</v>
       </c>
-      <c r="AN25" s="3">
+      <c r="AO25" s="3">
         <v>23</v>
       </c>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="3">
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>38</v>
@@ -3455,32 +3487,33 @@
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
-      <c r="AG26" s="3" t="s">
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AI26" s="3"/>
       <c r="AJ26" s="3"/>
       <c r="AK26" s="3"/>
       <c r="AL26" s="3"/>
-      <c r="AM26" s="3">
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3">
         <v>2</v>
       </c>
-      <c r="AN26" s="3">
+      <c r="AO26" s="3">
         <v>24</v>
       </c>
-      <c r="AO26" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="AP26" s="3">
+      <c r="AP26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ26" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>38</v>
@@ -3492,10 +3525,10 @@
         <v>69</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>48</v>
@@ -3509,62 +3542,63 @@
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="3" t="s">
+      <c r="U27" s="3"/>
+      <c r="V27" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-      <c r="Z27" s="3" t="s">
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA27" s="3"/>
       <c r="AB27" s="3"/>
-      <c r="AC27" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
-      <c r="AG27" s="3" t="s">
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH27" s="14">
+      <c r="AI27" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI27" s="3"/>
       <c r="AJ27" s="3"/>
       <c r="AK27" s="3"/>
       <c r="AL27" s="3"/>
-      <c r="AM27" s="3">
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3">
         <v>3</v>
       </c>
-      <c r="AN27" s="3">
+      <c r="AO27" s="3">
         <v>25</v>
       </c>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="3">
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>38</v>
@@ -3576,10 +3610,10 @@
         <v>69</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>48</v>
@@ -3593,62 +3627,63 @@
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="3" t="s">
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-      <c r="Z28" s="3" t="s">
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA28" s="3"/>
       <c r="AB28" s="3"/>
-      <c r="AC28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
-      <c r="AG28" s="3" t="s">
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH28" s="14">
+      <c r="AI28" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI28" s="3"/>
       <c r="AJ28" s="3"/>
       <c r="AK28" s="3"/>
       <c r="AL28" s="3"/>
-      <c r="AM28" s="3">
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3">
         <v>3</v>
       </c>
-      <c r="AN28" s="3">
+      <c r="AO28" s="3">
         <v>26</v>
       </c>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="3">
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>38</v>
@@ -3680,59 +3715,60 @@
         <v>85</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="3"/>
+      <c r="V29" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-      <c r="Z29" s="3" t="s">
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
-      <c r="AC29" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
-      <c r="AG29" s="3" t="s">
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH29" s="14">
+      <c r="AI29" s="14">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI29" s="3"/>
       <c r="AJ29" s="3"/>
       <c r="AK29" s="3"/>
       <c r="AL29" s="3"/>
-      <c r="AM29" s="3">
+      <c r="AM29" s="3"/>
+      <c r="AN29" s="3">
         <v>3</v>
       </c>
-      <c r="AN29" s="3">
+      <c r="AO29" s="3">
         <v>27</v>
       </c>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="3">
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>38</v>
@@ -3744,10 +3780,10 @@
         <v>69</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>48</v>
@@ -3761,62 +3797,63 @@
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="3" t="s">
+      <c r="U30" s="3"/>
+      <c r="V30" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-      <c r="Z30" s="3" t="s">
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA30" s="3"/>
       <c r="AB30" s="3"/>
-      <c r="AC30" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
-      <c r="AG30" s="3" t="s">
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH30" s="14">
+      <c r="AI30" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI30" s="3"/>
       <c r="AJ30" s="3"/>
       <c r="AK30" s="3"/>
       <c r="AL30" s="3"/>
-      <c r="AM30" s="3">
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3">
         <v>3</v>
       </c>
-      <c r="AN30" s="3">
+      <c r="AO30" s="3">
         <v>28</v>
       </c>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="3">
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>38</v>
@@ -3828,10 +3865,10 @@
         <v>69</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>48</v>
@@ -3845,7 +3882,7 @@
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P31" s="9">
         <v>4650075423257</v>
@@ -3854,53 +3891,54 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="3" t="s">
+      <c r="U31" s="3"/>
+      <c r="V31" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-      <c r="Z31" s="3" t="s">
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AA31" s="3"/>
       <c r="AB31" s="3"/>
-      <c r="AC31" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AD31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
-      <c r="AG31" s="3" t="s">
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH31" s="14">
+      <c r="AI31" s="14">
         <v>0.01</v>
       </c>
-      <c r="AI31" s="3"/>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
       <c r="AL31" s="3"/>
-      <c r="AM31" s="3">
+      <c r="AM31" s="3"/>
+      <c r="AN31" s="3">
         <v>3</v>
       </c>
-      <c r="AN31" s="3">
+      <c r="AO31" s="3">
         <v>29</v>
       </c>
-      <c r="AO31" s="4"/>
-      <c r="AP31" s="3">
+      <c r="AP31" s="4"/>
+      <c r="AQ31" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>38</v>
@@ -3943,27 +3981,28 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
-      <c r="AI32" s="3"/>
+      <c r="AH32" s="3"/>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
       <c r="AL32" s="3"/>
-      <c r="AM32" s="3">
+      <c r="AM32" s="3"/>
+      <c r="AN32" s="3">
         <v>1</v>
       </c>
-      <c r="AN32" s="3">
+      <c r="AO32" s="3">
         <v>400</v>
       </c>
-      <c r="AO32" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="AP32" s="3"/>
+      <c r="AP32" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ32" s="3"/>
     </row>
-    <row r="33" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>38</v>
@@ -4006,29 +4045,30 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
-      <c r="AI33" s="3"/>
+      <c r="AH33" s="3"/>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
       <c r="AL33" s="3"/>
-      <c r="AM33" s="3">
+      <c r="AM33" s="3"/>
+      <c r="AN33" s="3">
         <v>1</v>
       </c>
-      <c r="AN33" s="3">
+      <c r="AO33" s="3">
         <v>30</v>
       </c>
-      <c r="AO33" s="4">
+      <c r="AP33" s="4">
         <v>31</v>
       </c>
-      <c r="AP33" s="3">
+      <c r="AQ33" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>38</v>
@@ -4060,10 +4100,10 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3" t="s">
+      <c r="U34" s="3"/>
+      <c r="V34" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -4074,37 +4114,38 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
-      <c r="AG34" s="3" t="s">
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH34" s="14">
+      <c r="AI34" s="14">
         <v>0.15</v>
       </c>
-      <c r="AI34" s="3"/>
       <c r="AJ34" s="3"/>
-      <c r="AK34" s="3" t="s">
+      <c r="AK34" s="3"/>
+      <c r="AL34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3">
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3">
         <v>2</v>
       </c>
-      <c r="AN34" s="3">
+      <c r="AO34" s="3">
         <v>31</v>
       </c>
-      <c r="AO34" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="AP34" s="3">
+      <c r="AP34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ34" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>38</v>
@@ -4146,40 +4187,41 @@
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
-      <c r="AA35" s="3" t="s">
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
-      <c r="AG35" s="3" t="s">
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI35" s="3"/>
       <c r="AJ35" s="3"/>
-      <c r="AK35" s="3" t="s">
+      <c r="AK35" s="3"/>
+      <c r="AL35" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3">
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3">
         <v>3</v>
       </c>
-      <c r="AN35" s="3">
+      <c r="AO35" s="3">
         <v>32</v>
       </c>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="3">
+      <c r="AP35" s="4"/>
+      <c r="AQ35" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>38</v>
@@ -4218,45 +4260,46 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
-      <c r="V36" s="3" t="s">
+      <c r="V36" s="3"/>
+      <c r="W36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
-      <c r="AA36" s="3" t="s">
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
-      <c r="AG36" s="3" t="s">
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
       <c r="AK36" s="3"/>
       <c r="AL36" s="3"/>
-      <c r="AM36" s="3">
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3">
         <v>3</v>
       </c>
-      <c r="AN36" s="3">
+      <c r="AO36" s="3">
         <v>33</v>
       </c>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="3">
+      <c r="AP36" s="4"/>
+      <c r="AQ36" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>38</v>
@@ -4299,29 +4342,30 @@
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
-      <c r="AI37" s="3"/>
+      <c r="AH37" s="3"/>
       <c r="AJ37" s="3"/>
       <c r="AK37" s="3"/>
       <c r="AL37" s="3"/>
-      <c r="AM37" s="3">
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3">
         <v>1</v>
       </c>
-      <c r="AN37" s="3">
+      <c r="AO37" s="3">
         <v>34</v>
       </c>
-      <c r="AO37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP37" s="3">
+      <c r="AP37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ37" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>38</v>
@@ -4358,54 +4402,55 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
-      <c r="V38" s="3" t="s">
+      <c r="V38" s="3"/>
+      <c r="W38" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
-      <c r="AA38" s="3" t="s">
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AB38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC38" s="3"/>
+      <c r="AC38" s="3" t="s">
+        <v>194</v>
+      </c>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
       <c r="AF38" s="3"/>
-      <c r="AG38" s="3" t="s">
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH38" s="14">
+      <c r="AI38" s="14">
         <v>0.05</v>
       </c>
-      <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
-      <c r="AK38" s="3" t="s">
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="AL38" s="3" t="s">
+      <c r="AM38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AM38" s="3">
+      <c r="AN38" s="3">
         <v>2</v>
       </c>
-      <c r="AN38" s="3">
+      <c r="AO38" s="3">
         <v>35</v>
       </c>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="3">
+      <c r="AP38" s="4"/>
+      <c r="AQ38" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>38</v>
@@ -4444,67 +4489,68 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-      <c r="V39" s="3" t="s">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-      <c r="AA39" s="3" t="s">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-      <c r="AG39" s="3" t="s">
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH39" s="14">
+      <c r="AI39" s="14">
         <v>0.05</v>
       </c>
-      <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
-      <c r="AK39" s="3" t="s">
+      <c r="AK39" s="3"/>
+      <c r="AL39" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AL39" s="3" t="s">
+      <c r="AM39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AM39" s="3">
+      <c r="AN39" s="3">
         <v>2</v>
       </c>
-      <c r="AN39" s="3">
+      <c r="AO39" s="3">
         <v>36</v>
       </c>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="3">
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:43" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H40" s="16" t="s">
         <v>123</v>
@@ -4530,52 +4576,53 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-      <c r="V40" s="3" t="s">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-      <c r="AA40" s="3" t="s">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-      <c r="AG40" s="3" t="s">
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="AH40" s="14">
+      <c r="AI40" s="14">
         <v>0.04</v>
       </c>
-      <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
-      <c r="AK40" s="3" t="s">
+      <c r="AK40" s="3"/>
+      <c r="AL40" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="AL40" s="3" t="s">
+      <c r="AM40" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AM40" s="3">
+      <c r="AN40" s="3">
         <v>2</v>
       </c>
-      <c r="AN40" s="3">
+      <c r="AO40" s="3">
         <v>37</v>
       </c>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="3">
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="3">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>38</v>
@@ -4618,27 +4665,28 @@
       <c r="AE41" s="3"/>
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
-      <c r="AI41" s="3"/>
+      <c r="AH41" s="3"/>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
       <c r="AL41" s="3"/>
-      <c r="AM41" s="3">
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3">
         <v>1</v>
       </c>
-      <c r="AN41" s="3">
+      <c r="AO41" s="3">
         <v>500</v>
       </c>
-      <c r="AO41" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AP41" s="3"/>
+      <c r="AP41" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ41" s="3"/>
     </row>
-    <row r="42" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>38</v>
@@ -4670,63 +4718,64 @@
         <v>130</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="U42" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="X42" s="3"/>
+      <c r="X42" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
-      <c r="AA42" s="3" t="s">
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AB42" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC42" s="3"/>
+      <c r="AC42" s="3" t="s">
+        <v>196</v>
+      </c>
       <c r="AD42" s="3"/>
       <c r="AE42" s="3"/>
       <c r="AF42" s="3"/>
-      <c r="AG42" s="3" t="s">
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH42" s="14">
+      <c r="AI42" s="14">
         <v>0.15</v>
       </c>
-      <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
-      <c r="AM42" s="3">
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3">
         <v>2</v>
       </c>
-      <c r="AN42" s="3">
+      <c r="AO42" s="3">
         <v>38</v>
       </c>
-      <c r="AO42" s="4"/>
-      <c r="AP42" s="3">
+      <c r="AP42" s="4"/>
+      <c r="AQ42" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>38</v>
@@ -4760,53 +4809,54 @@
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
-      <c r="U43" s="3" t="s">
+      <c r="U43" s="3"/>
+      <c r="V43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
-      <c r="AA43" s="3" t="s">
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC43" s="3"/>
+      <c r="AC43" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AD43" s="3"/>
       <c r="AE43" s="3"/>
       <c r="AF43" s="3"/>
-      <c r="AG43" s="3" t="s">
+      <c r="AG43" s="3"/>
+      <c r="AH43" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AH43" s="14">
+      <c r="AI43" s="14">
         <v>0.1</v>
       </c>
-      <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
       <c r="AK43" s="3"/>
       <c r="AL43" s="3"/>
-      <c r="AM43" s="3">
+      <c r="AM43" s="3"/>
+      <c r="AN43" s="3">
         <v>2</v>
       </c>
-      <c r="AN43" s="3">
-        <v>39</v>
-      </c>
-      <c r="AO43" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="AP43" s="3">
+      <c r="AO43" s="3">
+        <v>39</v>
+      </c>
+      <c r="AP43" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AQ43" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>38</v>
@@ -4840,50 +4890,51 @@
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="3" t="s">
+      <c r="U44" s="3"/>
+      <c r="V44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
-      <c r="AA44" s="3" t="s">
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC44" s="3"/>
+      <c r="AC44" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
-      <c r="AG44" s="3" t="s">
+      <c r="AG44" s="3"/>
+      <c r="AH44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
-      <c r="AM44" s="3">
+      <c r="AM44" s="3"/>
+      <c r="AN44" s="3">
         <v>3</v>
       </c>
-      <c r="AN44" s="3">
+      <c r="AO44" s="3">
         <v>40</v>
       </c>
-      <c r="AO44" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP44" s="3">
+      <c r="AP44" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AQ44" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>38</v>
@@ -4913,60 +4964,61 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>141</v>
       </c>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="T45" s="3"/>
       <c r="U45" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="V45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="W45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="W45" s="3"/>
       <c r="X45" s="3"/>
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
-      <c r="AA45" s="3" t="s">
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC45" s="3"/>
+      <c r="AC45" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
-      <c r="AG45" s="3" t="s">
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
       <c r="AK45" s="3"/>
       <c r="AL45" s="3"/>
-      <c r="AM45" s="3">
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3">
         <v>4</v>
       </c>
-      <c r="AN45" s="3">
+      <c r="AO45" s="3">
         <v>41</v>
       </c>
-      <c r="AO45" s="4"/>
-      <c r="AP45" s="3">
+      <c r="AP45" s="4"/>
+      <c r="AQ45" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>38</v>
@@ -5006,52 +5058,53 @@
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="3" t="s">
+      <c r="U46" s="3"/>
+      <c r="V46" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="W46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W46" s="3"/>
       <c r="X46" s="3"/>
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
-      <c r="AA46" s="3" t="s">
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC46" s="3"/>
+      <c r="AC46" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
-      <c r="AG46" s="3" t="s">
+      <c r="AG46" s="3"/>
+      <c r="AH46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
-      <c r="AK46" s="3" t="s">
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AL46" s="3"/>
-      <c r="AM46" s="3">
+      <c r="AM46" s="3"/>
+      <c r="AN46" s="3">
         <v>4</v>
       </c>
-      <c r="AN46" s="3">
+      <c r="AO46" s="3">
         <v>42</v>
       </c>
-      <c r="AO46" s="4"/>
-      <c r="AP46" s="3">
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>38</v>
@@ -5066,7 +5119,7 @@
         <v>137</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>138</v>
@@ -5085,50 +5138,51 @@
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="3" t="s">
+      <c r="U47" s="3"/>
+      <c r="V47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
-      <c r="AA47" s="3" t="s">
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC47" s="3"/>
+      <c r="AC47" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
-      <c r="AG47" s="3" t="s">
+      <c r="AG47" s="3"/>
+      <c r="AH47" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
-      <c r="AM47" s="3">
+      <c r="AM47" s="3"/>
+      <c r="AN47" s="3">
         <v>3</v>
       </c>
-      <c r="AN47" s="3">
+      <c r="AO47" s="3">
         <v>43</v>
       </c>
-      <c r="AO47" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="AP47" s="3">
+      <c r="AP47" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AQ47" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>38</v>
@@ -5158,7 +5212,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>141</v>
@@ -5166,52 +5220,53 @@
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="U48" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="W48" s="3"/>
-      <c r="X48" s="8"/>
-      <c r="Y48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="8"/>
       <c r="Z48" s="3"/>
-      <c r="AA48" s="3" t="s">
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC48" s="3"/>
+      <c r="AC48" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
-      <c r="AG48" s="3" t="s">
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI48" s="3"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
       <c r="AL48" s="3"/>
-      <c r="AM48" s="3">
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3">
         <v>4</v>
       </c>
-      <c r="AN48" s="3">
+      <c r="AO48" s="3">
         <v>44</v>
       </c>
-      <c r="AO48" s="4"/>
-      <c r="AP48" s="3">
+      <c r="AP48" s="4"/>
+      <c r="AQ48" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:43" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>38</v>
@@ -5223,7 +5278,7 @@
         <v>133</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>142</v>
@@ -5251,48 +5306,49 @@
       <c r="R49" s="3"/>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="3" t="s">
+      <c r="U49" s="3"/>
+      <c r="V49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
-      <c r="AA49" s="3" t="s">
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC49" s="3"/>
+      <c r="AC49" s="3" t="s">
+        <v>195</v>
+      </c>
       <c r="AD49" s="3"/>
       <c r="AE49" s="3"/>
       <c r="AF49" s="3"/>
-      <c r="AG49" s="3" t="s">
+      <c r="AG49" s="3"/>
+      <c r="AH49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AI49" s="3"/>
       <c r="AJ49" s="3"/>
-      <c r="AK49" s="3" t="s">
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3">
+      <c r="AM49" s="3"/>
+      <c r="AN49" s="3">
         <v>4</v>
       </c>
-      <c r="AN49" s="3">
+      <c r="AO49" s="3">
         <v>45</v>
       </c>
-      <c r="AO49" s="4"/>
-      <c r="AP49" s="3">
+      <c r="AP49" s="4"/>
+      <c r="AQ49" s="3">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AQ49" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
